--- a/05_wiki_changelog/wiki-changelog.xlsx
+++ b/05_wiki_changelog/wiki-changelog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>Added footer to wiki</t>
-  </si>
-  <si>
     <t>adapt_authoring</t>
   </si>
   <si>
@@ -66,6 +63,18 @@
   </si>
   <si>
     <t>Wiki Changes</t>
+  </si>
+  <si>
+    <t>Added footer to wiki.</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>_Sidebar</t>
+  </si>
+  <si>
+    <t>Removed two accessibility patch links.</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,13 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,67 +435,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="6">
+        <v>42103</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>42103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42103</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,27 +503,69 @@
         <v>42092</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>42090</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/05_wiki_changelog/wiki-changelog.xlsx
+++ b/05_wiki_changelog/wiki-changelog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Removed two accessibility patch links.</t>
+  </si>
+  <si>
+    <t>Git-flow</t>
+  </si>
+  <si>
+    <t>Added link to Git help resources.</t>
+  </si>
+  <si>
+    <t>Reordered links in Getting Started.</t>
   </si>
 </sst>
 </file>
@@ -136,10 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +444,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
@@ -456,74 +465,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>42104</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>42104</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>42103</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>42103</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>42103</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +540,13 @@
         <v>42092</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,23 +557,51 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42090</v>
+        <v>42092</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42090</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/05_wiki_changelog/wiki-changelog.xlsx
+++ b/05_wiki_changelog/wiki-changelog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Reordered links in Getting Started.</t>
+  </si>
+  <si>
+    <t>Getting-Started</t>
+  </si>
+  <si>
+    <t>Removed from sidebar; duplicated sidebar links.</t>
+  </si>
+  <si>
+    <t>Installing-FFmpeg</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +479,13 @@
         <v>42104</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -484,32 +493,32 @@
         <v>42104</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -518,63 +527,63 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>42104</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>42103</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>42103</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42092</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,26 +591,68 @@
         <v>42092</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>42090</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
